--- a/forecast_summary_B089FY7QT1.xlsx
+++ b/forecast_summary_B089FY7QT1.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>10.57652360521264</v>
       </c>
       <c r="D2" t="n">
-        <v>33.65832022482934</v>
+        <v>32.79277312034962</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B550M DS3H</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>-16.78944457006619</v>
       </c>
       <c r="D3" t="n">
-        <v>5.971984700204358</v>
+        <v>6.344116829475877</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B550M DS3H</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>-42.62623104965205</v>
       </c>
       <c r="D4" t="n">
-        <v>-20.65706240566427</v>
+        <v>-18.69226366335729</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B550M DS3H</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>-31.80902241256103</v>
       </c>
       <c r="D5" t="n">
-        <v>-9.862872526955634</v>
+        <v>-8.363709306626685</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B550M DS3H</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>-2.712209848370527</v>
       </c>
       <c r="D6" t="n">
-        <v>19.69696564898269</v>
+        <v>18.57322535746533</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B550M DS3H</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>6.426156603518007</v>
       </c>
       <c r="D7" t="n">
-        <v>29.96917067143089</v>
+        <v>29.12075844437669</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B550M DS3H</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>-6.714475950974776</v>
       </c>
       <c r="D8" t="n">
-        <v>16.03984452624092</v>
+        <v>16.24628002101433</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B550M DS3H</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>-9.456441299284272</v>
       </c>
       <c r="D9" t="n">
-        <v>15.01129190112301</v>
+        <v>13.23230502437915</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B550M DS3H</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>12.10305449444532</v>
       </c>
       <c r="D10" t="n">
-        <v>33.46837522185267</v>
+        <v>32.76720490157034</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B550M DS3H</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>23.42264300187781</v>
       </c>
       <c r="D11" t="n">
-        <v>46.66129346387413</v>
+        <v>45.83820616429504</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B550M DS3H</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-18.55995858690346</v>
       </c>
       <c r="D12" t="n">
-        <v>4.613710742404575</v>
+        <v>3.126993079876108</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B550M DS3H</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>-103.6135991278431</v>
       </c>
       <c r="D13" t="n">
-        <v>-80.08564113560178</v>
+        <v>-81.2639768475014</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B550M DS3H</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>-165.3723589027924</v>
       </c>
       <c r="D14" t="n">
-        <v>-141.707829504396</v>
+        <v>-144.4850631115119</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B550M DS3H</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>-147.7847963780076</v>
       </c>
       <c r="D15" t="n">
-        <v>-125.2714526229868</v>
+        <v>-126.2117397271041</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B550M DS3H</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>-65.45854854071948</v>
       </c>
       <c r="D16" t="n">
-        <v>-42.62122662743266</v>
+        <v>-42.91190359626076</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B550M DS3H</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>11.55186785882482</v>
       </c>
       <c r="D17" t="n">
-        <v>35.34608608936584</v>
+        <v>33.83341242197459</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B550M DS3H</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>29.14216826350866</v>
       </c>
       <c r="D18" t="n">
-        <v>51.44585607051861</v>
+        <v>51.11297470874712</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B550M DS3H</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>-4.580306518313498</v>
       </c>
       <c r="D19" t="n">
-        <v>18.91892070828873</v>
+        <v>16.3693081249821</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B550M DS3H</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>-43.02116762995764</v>
       </c>
       <c r="D20" t="n">
-        <v>-22.45633734296071</v>
+        <v>-19.91112968655224</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B550M DS3H</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>-56.30461874682467</v>
       </c>
       <c r="D21" t="n">
-        <v>-34.82441023169361</v>
+        <v>-35.50445818345041</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B550M DS3H</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
